--- a/medicine/Pharmacie/Phénicol/Phénicol.xlsx
+++ b/medicine/Pharmacie/Phénicol/Phénicol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nicol</t>
+          <t>Phénicol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les phénicols constituent une famille d'antibiotiques, dont les molécules très simples contiennent une fonction phénylpropanoïde. Ils ont un spectre d'action très large, mais les résistances sont nombreuses et ont de nombreux effets secondaires, entre autres un risque d'agranulocytose. Ces molécules ciblent la peptidyltransférase de la sous-unité 50S du ribosome bactérien.
 Ces molécules sont aujourd'hui synthétisées par les chimistes organiciens. Il s'agit principalement du chloramphénicol, Florfénicol, et du thiamphénicol.  
